--- a/excel-utils-example/src/test/resources/import-demo-cell-read.xlsx
+++ b/excel-utils-example/src/test/resources/import-demo-cell-read.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>制表人</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>李云龙</t>
+  </si>
+  <si>
+    <t>制表成本</t>
   </si>
   <si>
     <r>
@@ -129,6 +132,18 @@
   </si>
   <si>
     <t>zhaoliu@qq.com</t>
+  </si>
+  <si>
+    <t>合并单元格(A1)</t>
+  </si>
+  <si>
+    <t>合并单元格(E1)</t>
+  </si>
+  <si>
+    <t>合并单元格(E3)</t>
+  </si>
+  <si>
+    <t>合并单元格(A5)</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +344,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -538,6 +565,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -673,7 +737,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,132 +749,147 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1176,127 +1255,132 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="12.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="63" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8">
+        <v>2000</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
         <v>74</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12">
         <v>45074.7336574074</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="12">
         <v>45074.7336574074</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
         <v>75</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12">
         <v>45074.7336574074</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="12">
         <v>45074.7336574074</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10">
         <v>76</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12">
         <v>45074.7336574074</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="12">
         <v>45074.7336574074</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10">
         <v>78</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12">
         <v>45074.7336574074</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="12">
         <v>45074.7336574074</v>
       </c>
     </row>
@@ -1316,14 +1400,69 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="E3:F5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
